--- a/공부내용.xlsx
+++ b/공부내용.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>1. 파일을 add 한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,26 @@
   </si>
   <si>
     <t>3. 체크아웃(버전을 지정해 상태변경) 하려면 git log로 7자리를 불러오거나 - 를 사용해 가장 최신버전으로 변경가느ㅜㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃의 3대목적 &gt; 버전관리 , 백업 , 협업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/[유저이름]/[저장소이름].git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 홈페이지에서 만든 repository와 로컬저장소가 연결됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 이제 홈페이지에서도 내 로컬저장소의 내용을 확인가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,27 +391,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/공부내용.xlsx
+++ b/공부내용.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>1. 파일을 add 한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,38 @@
   </si>
   <si>
     <t xml:space="preserve">  - 이제 홈페이지에서도 내 로컬저장소의 내용을 확인가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ git bash에서 붙여넣기 -&gt; 쉬프트+인서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone "reposetory 주소" .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 점을 붙이지 않으면 repository폴더가 생기고 그안에 내용물이 들어간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 주소를 작성하고 한칸띄우고 .을 붙인다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - push는 저장소에 올리는것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull origin master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - pull로 저장소의 내용을 그대로 가져올 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git init -&gt; .git폴더를 생성하는 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -406,37 +438,77 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/공부내용.xlsx
+++ b/공부내용.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>1. 파일을 add 한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>git init -&gt; .git폴더를 생성하는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> git add == 스테이지에 올린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 여기서 origin은 내가 쓸 별칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin(master) == repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master == 내 로컬 저장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일의 추가 -&gt; add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 상테를 찰칵 하는것 -&gt; commit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -468,47 +492,77 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/공부내용.xlsx
+++ b/공부내용.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>1. 파일을 add 한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,74 @@
   </si>
   <si>
     <t>해당 상테를 찰칵 하는것 -&gt; commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git의 status 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 추적안됨 [untracked]  -&gt; add되지않은상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스테이지됨 [staged] -&gt; add되어 추적되고있는 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 수정 없음 [unmodified] -&gt; add된 파일을 commit한 후의 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 수정함 [modefied]  - &gt;수정없음 상태에서 수정이 발생된 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 병렬작업 ( 순서를 기다리지 않고 각자 동시에 작업)을 위해 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  -브랜치를 생성하면 마지막 버전(commit)을 기준(pointed)으로 생성된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Head포인터는 가장 최신의 브랜치+커밋을 기준으로 위치한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반적인 브랜치 원칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Master브랜치에 직접 커밋x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 새로운 개발 진행시 master브랜치를 바라보는 새 브랜치 생성 [feature/name] 이름으로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 개발이 끝나면 master브랜치로 합친다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병합의 3가지 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 병합 커밋(수정부분을 합쳐 새로운결과 발생)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 빨리감기(좀더 뒤쪽상태로만 변경 , 새로운결과 발생x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 충돌(같은 부위의 다른 내용이 있어 충돌이 발생)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -563,6 +631,91 @@
     <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/공부내용.xlsx
+++ b/공부내용.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>1. 파일을 add 한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,114 @@
   </si>
   <si>
     <t xml:space="preserve">  - 충돌(같은 부위의 다른 내용이 있어 충돌이 발생)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 브랜치에 병합을 한 후 push까지 해야 원격저장소에까지 반영된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 피쳐브랜치에서 마스터로 병합하기전 , 검토를 위한 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare : 베이스 브랜치에 적용할 브랜치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base : 병합되는 대상 브랜치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목 : 커밋당시 작성한 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용 : 상세 내용 추가가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>able to merger:  충돌 사전 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewers : 검토대상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignees : request 요청자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labels : 사전 합의된 라벨 부여 [버그],[신규] 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull request가 완료되어 병합이되면 패치를 눌러 이력을 업데이트 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전 명 짓는법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx.yy.zz버전 -&gt; xx번의 메이저업데이트 , yy번의마이너 업데이트 , zz번의 메인터넌스 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그를 사용하여 버전관리 간능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 repository에 접근하여 커밋할 권한은 소유자가 settings의 collaborators에서 계정을 추가해줘야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본 저장소를 통째로 복사하여 다른 사용자가 개발하게되는것 -&gt; fork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fork와 branch는 비슷하지만 branch는 주로 내부수준의 프로젝트 , fork는 외부까지 있는 대규모에서 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fork를 한 외부 작업자의 경우 fork 후 원본저장소(upstream)와 버전을 맞추기위해 원격저장소 추가를 해야한다(충돌방지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upstream으로 원본저장소를 추가한 후 패치를 진행한다 (pull x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fork를 한 후 외부작업자가 작업을 하여 원본저장소에 병합시키기 -&gt; 동일하게 pull request를 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 작업자와 원본저장소의 충돌이 발생한 경울 rebase 를 진행한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 작업자의 커밋의 베이스를 원본저장소의 커밋으로 rebase한다는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 외부 저장소를 혼자만 사용할 때 가능하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">외부작업자의 최신 commit에 rebase를 클릭한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후 기존과 동일하게 충돌을 수정하고 , 강제푸시를 진행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 후 commit을 했는데 수정사항이 생겼다면 , 새로운 커밋하지말고 amend를 하면 commit이 수정된다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -716,6 +824,141 @@
     <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/공부내용.xlsx
+++ b/공부내용.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>1. 파일을 add 한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,22 @@
   </si>
   <si>
     <t>작업 후 commit을 했는데 수정사항이 생겼다면 , 새로운 커밋하지말고 amend를 하면 commit이 수정된다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherry-pick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastest브랜치를 출시했는데 오류가 발생 -&gt; hot fix 브랜치를 파서 오류 수정 후 master에 커밋완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.-&gt; 근데 master에 신규기능이 몇가지 업데이트 되어있는상황 -&gt; 이대로 다시 lastest와 병합하면 안됨 -&gt; 이럴떄 cherry-pick 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병합을 원하는 브랜치에서 특정 브랜치에 chreey-pick 누르면 됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A90"/>
+  <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -959,6 +975,26 @@
     <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
